--- a/Music and Memory/Testing Documents/TestingSchedule.xlsx
+++ b/Music and Memory/Testing Documents/TestingSchedule.xlsx
@@ -5,16 +5,17 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Dropbox\MusicMemoryTesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject\Music and Memory\Testing Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="12360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="12360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="YoungAdults" sheetId="1" r:id="rId1"/>
+    <sheet name="OlderAdults" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="215">
   <si>
     <t>Testing Schedule</t>
   </si>
@@ -660,13 +661,22 @@
   </si>
   <si>
     <t>may 1-July 31</t>
+  </si>
+  <si>
+    <t>Participant ID</t>
+  </si>
+  <si>
+    <t>Scan Session</t>
+  </si>
+  <si>
+    <t>CBS/Behavioural Session</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -744,6 +754,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -798,7 +816,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -846,6 +864,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1146,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2280,4 +2311,248 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="15.25" style="48" customWidth="1"/>
+    <col min="2" max="2" width="9" style="48"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="48">
+        <v>201</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="48">
+        <v>202</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="48">
+        <v>203</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="48">
+        <v>204</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="48">
+        <v>205</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="48">
+        <v>206</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="48">
+        <v>207</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="48">
+        <v>208</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="48">
+        <v>209</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="48">
+        <v>210</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="48">
+        <v>211</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="48">
+        <v>212</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="48">
+        <v>213</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="48">
+        <v>214</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="48">
+        <v>215</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="48">
+        <v>216</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="48">
+        <v>217</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="48">
+        <v>218</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="48">
+        <v>219</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="48">
+        <v>220</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="48">
+        <v>221</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="48">
+        <v>222</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="48">
+        <v>223</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="48">
+        <v>224</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="48">
+        <v>225</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Music and Memory/Testing Documents/TestingSchedule.xlsx
+++ b/Music and Memory/Testing Documents/TestingSchedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject\Music and Memory\Testing Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Dropbox\MusicMemoryTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="12360" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12885" yWindow="5415" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="YoungAdults" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="300">
   <si>
     <t>Testing Schedule</t>
   </si>
@@ -603,9 +603,6 @@
     <t>July 19 12pm</t>
   </si>
   <si>
-    <t>July 23 12pm</t>
-  </si>
-  <si>
     <t>Jun 28 12pm</t>
   </si>
   <si>
@@ -666,17 +663,275 @@
     <t>Participant ID</t>
   </si>
   <si>
-    <t>Scan Session</t>
-  </si>
-  <si>
-    <t>CBS/Behavioural Session</t>
+    <t>session 2</t>
+  </si>
+  <si>
+    <t>scan session</t>
+  </si>
+  <si>
+    <t>March 5 2-4</t>
+  </si>
+  <si>
+    <t>March 7 8:30am</t>
+  </si>
+  <si>
+    <t>prescan</t>
+  </si>
+  <si>
+    <t>March 5 1:30pm</t>
+  </si>
+  <si>
+    <t>March 18th 2pm</t>
+  </si>
+  <si>
+    <t>March 18 2:30-4:30</t>
+  </si>
+  <si>
+    <t>March 20 1:30-3:30</t>
+  </si>
+  <si>
+    <t>March 19 10am-12</t>
+  </si>
+  <si>
+    <t>March 19 9:30am</t>
+  </si>
+  <si>
+    <t>March 19 4pm-6pm</t>
+  </si>
+  <si>
+    <t>March 22 11am-1pm</t>
+  </si>
+  <si>
+    <t>March 19 3:30pm</t>
+  </si>
+  <si>
+    <t>March 22 2pm</t>
+  </si>
+  <si>
+    <t>March 22 2:30-4:30pm</t>
+  </si>
+  <si>
+    <t>William S</t>
+  </si>
+  <si>
+    <t>March 28 12pm</t>
+  </si>
+  <si>
+    <t>March 28 12:30pm-2:30</t>
+  </si>
+  <si>
+    <t>April 4 2pm-4pm</t>
+  </si>
+  <si>
+    <t>March 25 2pm</t>
+  </si>
+  <si>
+    <t>March 25 2:30pm-4:30</t>
+  </si>
+  <si>
+    <t>March 29 10am-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Kennedy </t>
+  </si>
+  <si>
+    <t>April 1 8:30am</t>
+  </si>
+  <si>
+    <t>April 1 9am</t>
+  </si>
+  <si>
+    <t>march 26 10:30am</t>
+  </si>
+  <si>
+    <t>Apr 25 9:30-11:30</t>
+  </si>
+  <si>
+    <t>Apr 25 11:30-1:30</t>
+  </si>
+  <si>
+    <t>Apr 25 9:15am</t>
+  </si>
+  <si>
+    <t>March 20 10:30am-12:30pm</t>
+  </si>
+  <si>
+    <t>John Dean</t>
+  </si>
+  <si>
+    <t>Apr 1 12:30pm</t>
+  </si>
+  <si>
+    <t>Apr 1 1pm</t>
+  </si>
+  <si>
+    <t>April 4 9am-11am</t>
+  </si>
+  <si>
+    <t>Jean Twigg</t>
+  </si>
+  <si>
+    <t>April 16 10am</t>
+  </si>
+  <si>
+    <t>April 16 10:30am</t>
+  </si>
+  <si>
+    <t>WITHDRAWN DUE TO CLAUSTROPHOBIA</t>
+  </si>
+  <si>
+    <t>Karen Marshall</t>
+  </si>
+  <si>
+    <t>Apr 15 9:30am</t>
+  </si>
+  <si>
+    <t>Apr 15 10am</t>
+  </si>
+  <si>
+    <t>Apr 17 8am</t>
+  </si>
+  <si>
+    <t>April 18 1pm</t>
+  </si>
+  <si>
+    <t>April 5 2pm</t>
+  </si>
+  <si>
+    <t>Jane Walker</t>
+  </si>
+  <si>
+    <t>Terry Otis</t>
+  </si>
+  <si>
+    <t>Pat Beyre</t>
+  </si>
+  <si>
+    <t>Maureen Murphy</t>
+  </si>
+  <si>
+    <t>June Howell</t>
+  </si>
+  <si>
+    <t>Mary Taylor</t>
+  </si>
+  <si>
+    <t>Apr 23 10;45am</t>
+  </si>
+  <si>
+    <t>Apr 23 11am</t>
+  </si>
+  <si>
+    <t>Eric Riley</t>
+  </si>
+  <si>
+    <t>May 1 4:15pm</t>
+  </si>
+  <si>
+    <t>May 1 4:30pm</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>Lynda</t>
+  </si>
+  <si>
+    <t>July 2, 10am</t>
+  </si>
+  <si>
+    <t>July 2 12pm</t>
+  </si>
+  <si>
+    <t>July 2 9:40am</t>
+  </si>
+  <si>
+    <t>216 and 217 (husband and wife)</t>
+  </si>
+  <si>
+    <t>July 5 10am</t>
+  </si>
+  <si>
+    <t>Zann</t>
+  </si>
+  <si>
+    <t>May 15, 1pm</t>
+  </si>
+  <si>
+    <t>Heather L</t>
+  </si>
+  <si>
+    <t>Brion L</t>
+  </si>
+  <si>
+    <t>July 3 10am</t>
+  </si>
+  <si>
+    <t>July 3 9:40am</t>
+  </si>
+  <si>
+    <t>219 and 220 (husband and wife)</t>
+  </si>
+  <si>
+    <t>May 3 1pm</t>
+  </si>
+  <si>
+    <t>Ann K</t>
+  </si>
+  <si>
+    <t>Gary K</t>
+  </si>
+  <si>
+    <t>May 2, 10am</t>
+  </si>
+  <si>
+    <t>May 2 10am</t>
+  </si>
+  <si>
+    <t>Dave M</t>
+  </si>
+  <si>
+    <t>July 2 1:40pm</t>
+  </si>
+  <si>
+    <t>July 2 2pm</t>
+  </si>
+  <si>
+    <t>July 4 10am</t>
+  </si>
+  <si>
+    <t>July 4 1pm</t>
+  </si>
+  <si>
+    <t>May 6 - cancelled</t>
+  </si>
+  <si>
+    <t>July 4 9:40am</t>
+  </si>
+  <si>
+    <t>July 5 1pm</t>
+  </si>
+  <si>
+    <t>Fernando L</t>
+  </si>
+  <si>
+    <t>July 4 11:40am</t>
+  </si>
+  <si>
+    <t>July 4 12pm</t>
+  </si>
+  <si>
+    <t>July 5 2pm</t>
+  </si>
+  <si>
+    <t>Aug 2 12pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -762,6 +1017,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -795,7 +1057,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -815,8 +1077,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -870,15 +1154,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -888,6 +1183,17 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -897,6 +1203,17 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1177,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2037,7 +2354,7 @@
         <v>171</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
@@ -2058,30 +2375,30 @@
         <v>11</v>
       </c>
       <c r="D25" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>199</v>
-      </c>
       <c r="F25" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>195</v>
-      </c>
       <c r="H25" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>202</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" s="14" t="s">
         <v>203</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>204</v>
       </c>
       <c r="N25" s="8"/>
     </row>
@@ -2145,15 +2462,15 @@
         <v>177</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M27" s="14" t="s">
         <v>196</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>197</v>
       </c>
       <c r="N27" s="8"/>
     </row>
@@ -2166,10 +2483,10 @@
         <v>12</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>188</v>
@@ -2186,7 +2503,7 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14" t="s">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="M28" s="44"/>
       <c r="N28" s="8"/>
@@ -2231,7 +2548,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -2245,7 +2562,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="E32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F32">
         <v>11</v>
@@ -2254,7 +2571,7 @@
     </row>
     <row r="33" spans="5:7" ht="16.5">
       <c r="E33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F33">
         <v>10</v>
@@ -2263,7 +2580,7 @@
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F34">
         <f>F33+F32</f>
@@ -2273,7 +2590,7 @@
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F35">
         <f>F34*2*150</f>
@@ -2315,244 +2632,433 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="48" customWidth="1"/>
-    <col min="2" max="2" width="9" style="48"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="51" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="56">
+        <v>201</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="56">
+        <v>202</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="56">
+        <v>203</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="52"/>
+      <c r="B5" s="51">
+        <v>204</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="56">
+        <v>205</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="56">
+        <v>206</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="56">
+        <v>207</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="56">
+        <v>208</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="56">
+        <v>209</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="56">
+        <v>210</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="56">
+        <v>211</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="56">
+        <v>212</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="56">
         <v>213</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="C14" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="54">
         <v>214</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="48">
-        <v>201</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="48">
-        <v>202</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="48">
-        <v>203</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="48">
-        <v>204</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="48">
-        <v>205</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="48">
-        <v>206</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="48">
-        <v>207</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="48">
-        <v>208</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="48">
-        <v>209</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="48">
-        <v>210</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="48">
-        <v>211</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="48">
-        <v>212</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="48">
-        <v>213</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="48">
-        <v>214</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="48">
+      <c r="C15" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="F15" s="53"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="48">
         <v>215</v>
       </c>
-      <c r="B16" s="50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="48">
+      <c r="C16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" s="50"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="48">
         <v>216</v>
       </c>
-      <c r="B17" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="48">
+      <c r="C17" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="48">
         <v>217</v>
       </c>
-      <c r="B18" s="50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="48">
+      <c r="C18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B19" s="48">
         <v>218</v>
       </c>
-      <c r="B19" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="48">
+      <c r="C19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20" s="48">
         <v>219</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="48">
+      <c r="C20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" t="s">
+        <v>279</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B21" s="48">
         <v>220</v>
       </c>
-      <c r="B21" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="48">
+      <c r="C21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="48">
         <v>221</v>
       </c>
-      <c r="B22" s="50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="48">
+      <c r="C22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B23" s="48">
         <v>222</v>
       </c>
-      <c r="B23" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="48">
-        <v>223</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="48">
-        <v>224</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="48">
-        <v>225</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
+      <c r="C23" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="49"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>